--- a/config_Release/assets_discount.xlsx
+++ b/config_Release/assets_discount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>id|</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>3D捕鱼场5</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_sanguo_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三国消消乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -616,7 +624,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -900,7 +908,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -921,12 +929,24 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">

--- a/config_Release/assets_discount.xlsx
+++ b/config_Release/assets_discount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>id|</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -218,6 +218,14 @@
   </si>
   <si>
     <t>三国消消乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +632,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -950,12 +958,24 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
